--- a/DataWarehouse/tunisian_data/excel/Caisse.xlsx
+++ b/DataWarehouse/tunisian_data/excel/Caisse.xlsx
@@ -455,11 +455,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8242</v>
+        <v>7593</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Libre-Service</t>
+          <t>Standard</t>
         </is>
       </c>
     </row>
@@ -468,11 +468,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8531</v>
+        <v>5639</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Express</t>
+          <t>Libre-Service</t>
         </is>
       </c>
     </row>
@@ -481,11 +481,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2573</v>
+        <v>3448</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Libre-Service</t>
+          <t>Standard</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8461</v>
+        <v>7111</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -507,11 +507,11 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5067</v>
+        <v>6849</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Express</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4047</v>
+        <v>1421</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5669</v>
+        <v>2385</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -546,11 +546,11 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3547</v>
+        <v>1585</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Express</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6490</v>
+        <v>7790</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8047</v>
+        <v>4994</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Libre-Service</t>
         </is>
       </c>
     </row>
